--- a/medicine/Handicap/Asiles/Asiles.xlsx
+++ b/medicine/Handicap/Asiles/Asiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Études sur la condition sociale des malades mentaux
-Asiles est un livre du sociologue américain Erving Goffman. Il est composé de quatre essais parus en 1961 aux États-Unis et traduits en France en 1968 par les Éditions de minuit sous le titre Asiles : études sur la condition sociale des malades mentaux. Ces essais se fondent sur l'observation intensive réalisée au sein d'une institution psychiatrique pour détailler la théorie de l'institution totale de l'auteur. Ils établissent la possibilité pour les différents acteurs confinés dans des lieux reclus d'exploiter leurs caractéristiques particulières pour satisfaire certains de leurs besoins personnels. L'enquête a eu lieu au sein du St. Elizabeths Hospital à Washington D.C.[1]
+Asiles est un livre du sociologue américain Erving Goffman. Il est composé de quatre essais parus en 1961 aux États-Unis et traduits en France en 1968 par les Éditions de minuit sous le titre Asiles : études sur la condition sociale des malades mentaux. Ces essais se fondent sur l'observation intensive réalisée au sein d'une institution psychiatrique pour détailler la théorie de l'institution totale de l'auteur. Ils établissent la possibilité pour les différents acteurs confinés dans des lieux reclus d'exploiter leurs caractéristiques particulières pour satisfaire certains de leurs besoins personnels. L'enquête a eu lieu au sein du St. Elizabeths Hospital à Washington D.C.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Les institutions totales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans cet ouvrage, Goffman utilise la méthode durkheimienne de la définition préalable et construit un objet, l’institution totale, pour y appliquer la méthode idéale typique.
 L’institution totale est un « lieu de résidence et/ou de travail » réunissant un certain nombre d’individus dans ces conditions :
@@ -558,7 +572,9 @@
           <t>Adaptations primaires et secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux forces s’opposent dans ces institutions :
 D’un côté, elles ont une dimension englobante, une capacité à assigner aux reclus un rôle bien déterminé. Cela passe par diverses techniques de mortification, de dépersonnalisation, d’aliénation (contamination physique, morale, cérémonies d’admission, dépouillement des biens, perte de l’autonomie, embrigadement…) justifiées de diverses manières (raisons d’hygiène, de sécurité…). Ces techniques vont plus ou moins structurer les perceptions et comportements des reclus de manière uniforme et selon un rôle décidé par l’institution. Les individus ont alors intérêt à jouer le jeu et à se conformer à leur nouveau rôle. Cette conduite peut être gratifiante et leur permettre d'obtenir certains privilèges, c'est l’adaptation primaire.
@@ -592,7 +608,9 @@
           <t>L’asile (étude ethnographique)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les parties 2 et 4, Goffman met à profit une observation directe effectuée dans un hôpital psychiatrique pour étayer une théorie interactionniste des institutions totales. Il qualifie sa méthode de recueil des données d’« étude ethnographique ».
 Note : La majorité de la littérature française sur Goffman a commis une approximation en qualifiant sa méthode dans Asiles « d'observation participante ». Les traducteurs eux-mêmes s’y sont trompés en intégrant l’expression dans l’index qui achève l’ouvrage. Pourtant, Goffman insiste dès l’introduction sur le fait que son observation était neutre, que malgré son poste officiel dans la hiérarchie de l’établissement Ste Elisabeth de Washington de 1954 à 1957, il ne prenait jamais partie, ne participait jamais aux activités et prenait garde à n’être jamais pris pour un membre du personnel par les reclus, et vice-versa. Or, l’observation participante consiste à essayer, tant que possible, de se mettre à la place des individus ou populations observées pour recréer une expérience subjective proche. La méthode de Goffman est qualifiable d’observation intensive, mais pas participante.
@@ -624,7 +642,9 @@
           <t>Carrière morale et interactions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Asiles, Goffman aborde notamment la « carrière morale » des malades mentaux, exemple clé de l’analyse interactionniste. Elle se divise en deux principales phases : la carrière pré hospitalière et la carrière hospitalière.
 La carrière morale se présente comme un entremêlement successif de déterminismes et contingences.
